--- a/Datos/Database by set/Set with text box/Xlsx sets/Return to Ravnica Promos (PRTR).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Return to Ravnica Promos (PRTR).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,378 +444,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Archon of the Triumvirate</t>
+          <t>('Archon of the Triumvirate', ['{5}{W}{U}', 'Creature — Archon', 'Flying', 'Whenever Archon of the Triumvirate attacks, detain up to two target nonland permanents your opponents control. (Until your next turn, those permanents can’t attack or block and their activated abilities can’t be activated.)', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{5}{W}{U}</t>
+          <t>('Carnival Hellsteed', ['{4}{B}{R}', 'Creature — Nightmare Horse', 'First strike, haste', 'Unleash (You may have this creature enter the battlefield with a +1/+1 counter on it. It can’t block as long as it has a +1/+1 counter on it.)', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Archon</t>
+          <t>('Corpsejack Menace', ['{2}{B}{G}', 'Creature — Fungus', 'If one or more +1/+1 counters would be put on a creature you control, twice that many +1/+1 counters are put on it instead.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Cryptborn Horror', ['{1}{B/R}{B/R}', 'Creature — Horror', 'Trample', 'Cryptborn Horror enters the battlefield with X +1/+1 counters on it, where X is the total life lost by your opponents this turn.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Whenever Archon of the Triumvirate attacks, detain up to two target nonland permanents your opponents control. (Until your next turn, those permanents can’t attack or block and their activated abilities can’t be activated.)</t>
+          <t>('Deadbridge Goliath', ['{2}{G}{G}', 'Creature — Insect', 'Scavenge {4}{G}{G} ({4}{G}{G}, Exile this card from your graveyard: Put a number of +1/+1 counters equal to this card’s power on target creature. Scavenge only as a sorcery.)', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>('Dreg Mangler', ['{1}{B}{G}', 'Creature — Plant Zombie', 'Haste', 'Scavenge {3}{B}{G} ({3}{B}{G}, Exile this card from your graveyard: Put a number of +1/+1 counters equal to this card’s power on target creature. Scavenge only as a sorcery.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Carnival Hellsteed</t>
+          <t>('Dryad Militant', ['{G/W}', 'Creature — Dryad Soldier', 'If an instant or sorcery card would be put into a graveyard from anywhere, exile it instead.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{4}{B}{R}</t>
+          <t>('Grove of the Guardian', ['Land', '{T}: Add {C}.', '{3}{G}{W}, {T}, Tap two untapped creatures you control, Sacrifice Grove of the Guardian: Create an 8/8 green and white Elemental creature token with vigilance.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Creature — Nightmare Horse</t>
+          <t>('Hypersonic Dragon', ['{3}{U}{R}', 'Creature — Dragon', 'Flying, haste', 'You may cast sorcery spells as though they had flash. (You may cast them any time you could cast an instant.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>First strike, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Unleash (You may have this creature enter the battlefield with a +1/+1 counter on it. It can’t block as long as it has a +1/+1 counter on it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Corpsejack Menace</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{2}{B}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Creature — Fungus</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>If one or more +1/+1 counters would be put on a creature you control, twice that many +1/+1 counters are put on it instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Cryptborn Horror</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{1}{B/R}{B/R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Creature — Horror</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Cryptborn Horror enters the battlefield with X +1/+1 counters on it, where X is the total life lost by your opponents this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Deadbridge Goliath</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Creature — Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Scavenge {4}{G}{G} ({4}{G}{G}, Exile this card from your graveyard: Put a number of +1/+1 counters equal to this card’s power on target creature. Scavenge only as a sorcery.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Dreg Mangler</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{1}{B}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Creature — Plant Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Scavenge {3}{B}{G} ({3}{B}{G}, Exile this card from your graveyard: Put a number of +1/+1 counters equal to this card’s power on target creature. Scavenge only as a sorcery.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Dryad Militant</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{G/W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Creature — Dryad Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>If an instant or sorcery card would be put into a graveyard from anywhere, exile it instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Grove of the Guardian</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>{3}{G}{W}, {T}, Tap two untapped creatures you control, Sacrifice Grove of the Guardian: Create an 8/8 green and white Elemental creature token with vigilance.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Hypersonic Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>{3}{U}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Flying, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>You may cast sorcery spells as though they had flash. (You may cast them any time you could cast an instant.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Supreme Verdict</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{1}{W}{W}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>This spell can’t be countered.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Destroy all creatures.</t>
+          <t>('Supreme Verdict', ['{1}{W}{W}{U}', 'Sorcery', 'This spell can’t be countered.', 'Destroy all creatures.'])</t>
         </is>
       </c>
     </row>
